--- a/Assets/ExcelDatas/StatLevel.xlsx
+++ b/Assets/ExcelDatas/StatLevel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7291029-C4F0-46A1-AB1C-8DA630E244EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>UpgradeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,15 +676,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.69921875" style="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -694,7 +698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -722,7 +726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -736,7 +740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -750,7 +754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -764,7 +768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -778,7 +782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -800,26 +804,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2916C-EE63-43E2-961A-9DDBB10CECF4}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="3"/>
+    <col min="4" max="4" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -836,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -844,7 +845,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -853,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -870,7 +871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>12001</v>
       </c>
@@ -887,7 +888,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>12002</v>
       </c>
@@ -904,7 +905,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>12003</v>
       </c>
@@ -921,7 +922,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>12004</v>
       </c>
@@ -938,7 +939,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>12005</v>
       </c>
@@ -955,7 +956,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12006</v>
       </c>
@@ -972,7 +973,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>12007</v>
       </c>
@@ -989,7 +990,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>12008</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>12009</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12010</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12011</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12012</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>12013</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>12014</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>12015</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>12016</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>12017</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>12018</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>12019</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>12020</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>12021</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>12022</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>12023</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>12024</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>12025</v>
       </c>

--- a/Assets/ExcelDatas/StatLevel.xlsx
+++ b/Assets/ExcelDatas/StatLevel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{63C66BA3-6540-4A73-9895-69F8C0743213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EB84149-9E18-4830-8530-2FB2AAB02A23}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
   </si>
   <si>
     <t>UpgradeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +672,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="8.75" style="1"/>
     <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
@@ -684,7 +680,7 @@
     <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,7 +694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,7 +708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -726,7 +722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -740,7 +736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -754,7 +750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -768,7 +764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -782,7 +778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -806,11 +802,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2916C-EE63-43E2-961A-9DDBB10CECF4}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
@@ -820,7 +816,7 @@
     <col min="6" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -837,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -845,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -854,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -871,7 +867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>12001</v>
       </c>
@@ -879,7 +875,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -888,7 +884,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
         <v>12002</v>
       </c>
@@ -896,7 +892,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -905,7 +901,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
         <v>12003</v>
       </c>
@@ -913,7 +909,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -922,7 +918,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
         <v>12004</v>
       </c>
@@ -930,7 +926,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -939,7 +935,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
         <v>12005</v>
       </c>
@@ -947,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -956,7 +952,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
         <v>12006</v>
       </c>
@@ -964,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -973,7 +969,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" s="2">
         <v>12007</v>
       </c>
@@ -981,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -990,7 +986,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="2">
         <v>12008</v>
       </c>
@@ -998,7 +994,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -1007,7 +1003,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" s="2">
         <v>12009</v>
       </c>
@@ -1015,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>
@@ -1024,7 +1020,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" s="2">
         <v>12010</v>
       </c>
@@ -1032,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -1041,7 +1037,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" s="2">
         <v>12011</v>
       </c>
@@ -1049,7 +1045,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -1058,7 +1054,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" s="2">
         <v>12012</v>
       </c>
@@ -1066,7 +1062,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -1075,7 +1071,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" s="2">
         <v>12013</v>
       </c>
@@ -1083,7 +1079,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -1092,7 +1088,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A17" s="2">
         <v>12014</v>
       </c>
@@ -1100,7 +1096,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -1109,7 +1105,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A18" s="2">
         <v>12015</v>
       </c>
@@ -1117,7 +1113,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
@@ -1126,7 +1122,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" s="2">
         <v>12016</v>
       </c>
@@ -1134,7 +1130,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1143,7 +1139,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A20" s="2">
         <v>12017</v>
       </c>
@@ -1151,7 +1147,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
@@ -1160,7 +1156,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A21" s="2">
         <v>12018</v>
       </c>
@@ -1168,7 +1164,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -1177,7 +1173,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A22" s="2">
         <v>12019</v>
       </c>
@@ -1185,7 +1181,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -1194,7 +1190,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A23" s="2">
         <v>12020</v>
       </c>
@@ -1202,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
@@ -1211,7 +1207,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A24" s="2">
         <v>12021</v>
       </c>
@@ -1219,7 +1215,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="2">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1228,7 +1224,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A25" s="2">
         <v>12022</v>
       </c>
@@ -1236,7 +1232,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="2">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -1245,7 +1241,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A26" s="2">
         <v>12023</v>
       </c>
@@ -1253,7 +1249,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="2">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -1262,7 +1258,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A27" s="2">
         <v>12024</v>
       </c>
@@ -1270,7 +1266,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="2">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
@@ -1279,7 +1275,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A28" s="2">
         <v>12025</v>
       </c>
@@ -1287,7 +1283,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="2">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2">
         <v>5</v>
